--- a/dummy_data/CLASSES MASTERS TIMETABLE.xlsx
+++ b/dummy_data/CLASSES MASTERS TIMETABLE.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
